--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
+  <si>
+    <t>1 Space/Time Navigation</t>
+  </si>
   <si>
     <t>opensourced</t>
   </si>
@@ -49,19 +52,16 @@
     <t>box information</t>
   </si>
   <si>
-    <t>multiple views</t>
-  </si>
-  <si>
     <t>3D perspective view</t>
   </si>
   <si>
-    <t>XY,YZ,ZX plance view</t>
+    <t>XY,YZ,ZX plane view</t>
   </si>
   <si>
     <t>photo context with box projection</t>
   </si>
   <si>
-    <t>multiple-camera-imag support</t>
+    <t>multiple-camera-image support</t>
   </si>
   <si>
     <t>auto camera switching</t>
@@ -73,12 +73,12 @@
     <t>９Degrees of Freedom Editing</t>
   </si>
   <si>
+    <t>multi-view  editing</t>
+  </si>
+  <si>
     <t>auto box initialization (one-click annotation)</t>
   </si>
   <si>
-    <t>multi-view  editing</t>
-  </si>
-  <si>
     <t>semi auto box fitting</t>
   </si>
   <si>
@@ -97,17 +97,59 @@
     <t>2d-screen</t>
   </si>
   <si>
+    <t>y
+播放视频的时候锁定某一个目标，可以方便检查tracking　id的错误．</t>
+  </si>
+  <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>y
+一键放大物体/居中/去除背景．
+优势：不需要旋转，移动主视角去检查细节，去除了背景更方便查看．</t>
+  </si>
+  <si>
+    <t>y　对点加颜色方便检查标注错误．不然不容易分辨一个点是在ｂｏｘ内部还是在外部．</t>
+  </si>
+  <si>
+    <t>y
+ｂｏｘ的详细信息，包括坐标，尺寸，角度，点个数等．　该信息不太重要．</t>
+  </si>
+  <si>
+    <t>y
+投影试图，方便检查ｂｏｘ的准确性</t>
+  </si>
+  <si>
+    <t>yes
+必需</t>
+  </si>
+  <si>
+    <t>yes
+优势：相机多的时候，人工切换很困难．</t>
+  </si>
+  <si>
+    <t>y
+优势：不需要放大缩小photo去检查细节．</t>
+  </si>
+  <si>
+    <t>9
+优势：支持９自由度对地面相对采集车不水平的情况很有用</t>
   </si>
   <si>
     <t>yes
 prototype-based, growing algorithm,
 preset  direcion,
-and box fitting</t>
+and box fitting
+优势：极大的减少了调整box的时间．</t>
+  </si>
+  <si>
+    <t>yes
+优势：极大的减少了调整box的时间．</t>
   </si>
   <si>
     <t>yes,
-registration based</t>
+registration based
+优势：能比较准确的确定目标方向．</t>
   </si>
   <si>
     <t>no</t>
@@ -129,7 +171,7 @@
     <t>yes, 背景未去除,，经过投影，很多object重叠在一起</t>
   </si>
   <si>
-    <t>no,将所有图片全部显示在顶部</t>
+    <t>no,将所有图片全部显示在顶部，缺点是图缩得太小．</t>
   </si>
   <si>
     <t>仅支持主视图内编辑</t>
@@ -173,7 +215,7 @@
   </si>
   <si>
     <t xml:space="preserve">yes,
-简介：tracking算法确定位置，重新使用boxfitting 算法确定方向．　
+简介：tracking算法确定位置，重新使用boxfitting 算法确定方向. 没有利用到已经标准的方向信息．
 </t>
   </si>
   <si>
@@ -871,7 +913,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -880,6 +922,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1206,14 +1251,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1227,636 +1272,662 @@
     <col min="7" max="7" width="16" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="5.875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.13333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1416666666667" style="1" customWidth="1"/>
     <col min="11" max="12" width="12.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.5" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14.625" style="1" customWidth="1"/>
-    <col min="21" max="22" width="9" style="1"/>
-    <col min="23" max="23" width="8.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7833333333333" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="14.625" style="1" customWidth="1"/>
+    <col min="20" max="21" width="9" style="1"/>
+    <col min="22" max="22" width="8.875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="1" customWidth="1"/>
     <col min="24" max="24" width="18.875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="8.75" style="1" customWidth="1"/>
-    <col min="26" max="26" width="8.5" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="1"/>
-    <col min="29" max="29" width="8" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="1"/>
+    <col min="25" max="25" width="8.5" style="1" customWidth="1"/>
+    <col min="26" max="26" width="16.875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="8" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122" customHeight="1" spans="3:29">
-      <c r="C1" s="2" t="s">
+    <row r="1" ht="111" customHeight="1" spans="6:19">
+      <c r="F1" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="1">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1">
+        <v>4</v>
+      </c>
+      <c r="P1" s="1">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1">
+        <v>6</v>
+      </c>
+      <c r="S1" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="122" customHeight="1" spans="3:28">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" ht="71.25" spans="1:29">
-      <c r="A2" s="1" t="s">
+    <row r="3" ht="132.75" spans="1:28">
+      <c r="A3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="W2" s="1">
-        <v>9</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" ht="115.5" spans="1:29">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W5" s="1">
-        <v>9</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="6" ht="47.25" spans="1:23">
+    <row r="6" ht="115.5" spans="1:28">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="W6" s="1">
+        <v>40</v>
+      </c>
+      <c r="V6" s="1">
         <v>9</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" ht="139.5" spans="1:27">
+    <row r="7" ht="47.25" spans="1:22">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="139.5" spans="1:26">
+      <c r="A8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" s="1"/>
-      <c r="W7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="V8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA7" s="1" t="s">
-        <v>49</v>
+      <c r="X8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>51</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="10" ht="30.75" spans="1:27">
-      <c r="A10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA10" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" ht="99" spans="1:20">
+    <row r="11" ht="30.75" spans="1:26">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="12" ht="49.5" spans="1:29">
+    <row r="12" ht="99" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA12" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC12" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1" t="s">
-        <v>68</v>
+    <row r="13" ht="49.5" spans="1:28">
+      <c r="A13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:I1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
